--- a/medicine/Psychotrope/Clairette_rose/Clairette_rose.xlsx
+++ b/medicine/Psychotrope/Clairette_rose/Clairette_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La clairette rose est un cépage aux grains roses, principalement présent en France.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La clairette rose est une variété de la clairette. Avec 371 hectares (en 2004), le cépage est peu cultivé en France.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré carminé.
 Jeune feuilles duveteuses, jaunâtres
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque moyenne : 30 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grosses et les baies sont de taille moyenne. La grappe est cylindro-conique, peu compacte et ailée. Le cépage est très vigoureux et fertile. Il est peu sensible à l'oïdium et l’excoriose mais il craint le mildiou et les acariens.
 </t>
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La clairette rose est connue sous le nom blanquette rose.
 </t>
